--- a/ruoyi-aucper/document/概要設計.xlsx
+++ b/ruoyi-aucper/document/概要設計.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\RuoYi-Vue\ruoyi-aucper\document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace_aucper\RuoYi-Vue\ruoyi-aucper\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFDDBECB-879B-4458-92B2-B5C2B434647E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{699F769E-5871-49DC-B37F-F0E052173850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>出品情報取得</t>
     <rPh sb="0" eb="2">
@@ -179,6 +179,33 @@
   </si>
   <si>
     <t>35 0 * * * ?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BID_END_DATE &lt;= (sysdate() + INTERVAL 2 MINUTE)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BID_END_DATE &lt;= (sysdate() + INTERVAL 10 MINUTE)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BID_END_DATE &lt;= (sysdate() + INTERVAL 1 HOUR)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BID_END_DATE &lt;= (sysdate() + INTERVAL 24 HOUR)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実行No</t>
+    <rPh sb="0" eb="2">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BID_END_DATE &gt;= (sysdate() + INTERVAL 1 DAY)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -513,92 +540,127 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:E15"/>
+  <dimension ref="A2:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="53.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="37.5">
+    <row r="3" spans="1:6" ht="37.5">
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="B4" t="s">
+    <row r="4" spans="1:6">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="B5" t="s">
+    <row r="5" spans="1:6">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="B6" t="s">
+    <row r="6" spans="1:6">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="B7" t="s">
+    <row r="7" spans="1:6">
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
         <v>8</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="F7" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="B8" t="s">
+    <row r="8" spans="1:6">
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
         <v>12</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="F8" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="15" spans="1:5">
-      <c r="E15" s="1"/>
+    <row r="15" spans="1:6">
+      <c r="F15" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -608,15 +670,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008D990E6C9AD51646B43A3DD235A41D21" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="015c0517e988590344350668741b67f7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="71c1440c-0d66-431d-97f3-fee844c8e84c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fdfc38724846845557fac275b225a13f" ns3:_="">
     <xsd:import namespace="71c1440c-0d66-431d-97f3-fee844c8e84c"/>
@@ -748,6 +801,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -755,14 +817,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3671387F-36A8-4102-82B5-DB9332FFBC95}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05A29E1C-D483-43B5-9B85-EE05247FB5AF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -780,6 +834,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3671387F-36A8-4102-82B5-DB9332FFBC95}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7AAB172F-9A0E-40C1-A0D1-1081BE24BA7E}">
   <ds:schemaRefs>

--- a/ruoyi-aucper/document/概要設計.xlsx
+++ b/ruoyi-aucper/document/概要設計.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace_aucper\RuoYi-Vue\ruoyi-aucper\document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\RuoYi-Vue\ruoyi-aucper\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{699F769E-5871-49DC-B37F-F0E052173850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4674CE1C-1329-47CA-9CF6-7C3B242D04AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -174,14 +174,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>50 */30 * * * ?</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>35 0 * * * ?</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>BID_END_DATE &lt;= (sysdate() + INTERVAL 2 MINUTE)</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -206,6 +198,14 @@
   </si>
   <si>
     <t>BID_END_DATE &gt;= (sysdate() + INTERVAL 1 DAY)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50 15,45 * * * ?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>35 30 * * * ?</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -543,7 +543,7 @@
   <dimension ref="A2:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -562,7 +562,7 @@
     </row>
     <row r="3" spans="1:6" ht="37.5">
       <c r="B3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -588,7 +588,7 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -605,7 +605,7 @@
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -622,7 +622,7 @@
         <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -633,13 +633,13 @@
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -650,13 +650,13 @@
         <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -670,6 +670,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008D990E6C9AD51646B43A3DD235A41D21" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="015c0517e988590344350668741b67f7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="71c1440c-0d66-431d-97f3-fee844c8e84c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fdfc38724846845557fac275b225a13f" ns3:_="">
     <xsd:import namespace="71c1440c-0d66-431d-97f3-fee844c8e84c"/>
@@ -801,15 +810,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -817,6 +817,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3671387F-36A8-4102-82B5-DB9332FFBC95}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05A29E1C-D483-43B5-9B85-EE05247FB5AF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -834,14 +842,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3671387F-36A8-4102-82B5-DB9332FFBC95}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7AAB172F-9A0E-40C1-A0D1-1081BE24BA7E}">
   <ds:schemaRefs>

--- a/ruoyi-aucper/document/概要設計.xlsx
+++ b/ruoyi-aucper/document/概要設計.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\RuoYi-Vue\ruoyi-aucper\document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace_aucper\RuoYi-Vue\ruoyi-aucper\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4674CE1C-1329-47CA-9CF6-7C3B242D04AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFCBF427-00AC-4571-9D9A-FEB3ED9502FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>出品情報取得</t>
     <rPh sb="0" eb="2">
@@ -208,12 +208,31 @@
     <t>35 30 * * * ?</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>Yahooアカウントに関して</t>
+    <rPh sb="11" eb="12">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>YahooAccount</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>wdindex</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>=wdindex % size</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,6 +244,13 @@
       <sz val="6"/>
       <name val="Yu Gothic"/>
       <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -249,16 +275,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -540,10 +569,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:F15"/>
+  <dimension ref="A2:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -567,7 +596,7 @@
       <c r="C3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E3" t="s">
@@ -584,7 +613,7 @@
       <c r="D4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F4" t="s">
@@ -601,7 +630,7 @@
       <c r="D5" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F5" t="s">
@@ -618,7 +647,7 @@
       <c r="D6" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F6" t="s">
@@ -635,7 +664,7 @@
       <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F7" t="s">
@@ -652,15 +681,99 @@
       <c r="D8" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F8" t="s">
         <v>22</v>
       </c>
     </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="3">
+        <v>2</v>
+      </c>
+      <c r="E12" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="B13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="B14" s="3">
+        <v>0</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+    </row>
     <row r="15" spans="1:6">
-      <c r="F15" s="1"/>
+      <c r="B15" s="3">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3">
+        <v>1</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="B16" s="3">
+        <v>2</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3">
+        <v>0</v>
+      </c>
+      <c r="E16" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="3">
+        <v>3</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3">
+        <v>1</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="3">
+        <v>4</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -670,15 +783,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008D990E6C9AD51646B43A3DD235A41D21" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="015c0517e988590344350668741b67f7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="71c1440c-0d66-431d-97f3-fee844c8e84c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fdfc38724846845557fac275b225a13f" ns3:_="">
     <xsd:import namespace="71c1440c-0d66-431d-97f3-fee844c8e84c"/>
@@ -810,21 +914,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3671387F-36A8-4102-82B5-DB9332FFBC95}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05A29E1C-D483-43B5-9B85-EE05247FB5AF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -842,7 +947,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7AAB172F-9A0E-40C1-A0D1-1081BE24BA7E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -856,4 +961,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3671387F-36A8-4102-82B5-DB9332FFBC95}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/ruoyi-aucper/document/概要設計.xlsx
+++ b/ruoyi-aucper/document/概要設計.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace_aucper\RuoYi-Vue\ruoyi-aucper\document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\RuoYi-Vue\ruoyi-aucper\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFCBF427-00AC-4571-9D9A-FEB3ED9502FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFB69E19-C107-4DEE-B7F2-9AC648659065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>出品情報取得</t>
     <rPh sb="0" eb="2">
@@ -225,6 +225,14 @@
   </si>
   <si>
     <t>=wdindex % size</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>harumi flag</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0 * * * * ?</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -572,7 +580,7 @@
   <dimension ref="A2:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -688,6 +696,21 @@
         <v>22</v>
       </c>
     </row>
+    <row r="9" spans="1:6">
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" t="s">
+        <v>29</v>
+      </c>
+    </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>25</v>
@@ -783,6 +806,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008D990E6C9AD51646B43A3DD235A41D21" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="015c0517e988590344350668741b67f7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="71c1440c-0d66-431d-97f3-fee844c8e84c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fdfc38724846845557fac275b225a13f" ns3:_="">
     <xsd:import namespace="71c1440c-0d66-431d-97f3-fee844c8e84c"/>
@@ -914,12 +943,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -930,6 +953,22 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7AAB172F-9A0E-40C1-A0D1-1081BE24BA7E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="71c1440c-0d66-431d-97f3-fee844c8e84c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05A29E1C-D483-43B5-9B85-EE05247FB5AF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -947,22 +986,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7AAB172F-9A0E-40C1-A0D1-1081BE24BA7E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="71c1440c-0d66-431d-97f3-fee844c8e84c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3671387F-36A8-4102-82B5-DB9332FFBC95}">
   <ds:schemaRefs>
